--- a/execution-substratrates/csv/rulebook.xlsx
+++ b/execution-substratrates/csv/rulebook.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Orders" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,6 +456,7 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,6 +490,11 @@
           <t>FullName</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -520,6 +527,11 @@
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>ord1001, ord1002</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -552,6 +564,11 @@
           <t>John Doe</t>
         </is>
       </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>ord1002</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -582,6 +599,157 @@
       <c r="F4" s="3" t="inlineStr">
         <is>
           <t>Emily Jones</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>OrderId</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>OrderNumber</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CustomerEmailAddress</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CustomerFullName</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ord1001</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>ORD1001</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>cust0001</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>jane.smith@email.com</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ord1002</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>ORD1002</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>cust0002</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>john.doe@email.com</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>ord1002</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>ORD1002</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>cust0001</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>jane.smith@email.com</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
         </is>
       </c>
     </row>

--- a/execution-substratrates/csv/rulebook.xlsx
+++ b/execution-substratrates/csv/rulebook.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Orders" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LanguageCandidates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IsEverythingALanguage" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ERBCustomizations" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -450,158 +451,2339 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="22" customWidth="1" min="17" max="17"/>
+    <col width="13" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="29" customWidth="1" min="22" max="22"/>
+    <col width="28" customWidth="1" min="23" max="23"/>
+    <col width="23" customWidth="1" min="24" max="24"/>
+    <col width="26" customWidth="1" min="25" max="25"/>
+    <col width="12" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CustomerId</t>
+          <t>LanguageCandidateId</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Customer</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>EmailAddress</t>
+          <t>IsLanguage</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FirstName</t>
+          <t>HasGrammar</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LastName</t>
+          <t>HasSyntax</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FullName</t>
+          <t>CanBeHeld</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PredictedAnswer</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PredictionPredicates</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PredictionFail</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HasIdentity</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RequiresParsing</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ResolvesToAnAST</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>HasLinearDecodingPressure</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>IsStableOntologyReference</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>IsLiveOntologyEditor</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IsOpenWorld</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>IsClosedWorld</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DistanceFromConcept</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>IsOpenClosedWorldConflicted</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>DimensionalityWhileEditing</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>RelationshipToConcept</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ModelObjectFacilityLayer</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>SortOrder</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>cust0001</t>
+          <t>english</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>CUST0001</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>jane.smith@email.com</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Jane</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Jane Smith</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>ord1001, ord1002</t>
-        </is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Is English a language?</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Natural Language</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>cust0002</t>
+          <t>a-coffee-mug</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CUST0002</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>john.doe@email.com</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Doe</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>ord1002</t>
-        </is>
+          <t>A Coffee Mug</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Is A Coffee Mug a language?</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, No Parsing Needed, Is the Thing, No Decoding Pressure, No AST, Not 'Ontology', Can Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Physical Object</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X3" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y3" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>cust0003</t>
+          <t>spoken-words</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>CUST0003</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>emily.jones@email.com</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Emily</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>Emily Jones</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr"/>
+          <t>Spoken Words</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Is Spoken Words a language?</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Natural Language</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y4" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>a-game-of-fortnite</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>A Game of Fortnite</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Is A Game of Fortnite a language?</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, Requires Parsing, Is the Thing, No Decoding Pressure, No AST, Not 'Ontology', Can't Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Running Software</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y5" s="2" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>sign-language</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Sign Language</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Is Sign Language a language?</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Natural Language</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y6" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>editing-airtable-base</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Editing Airtable Base</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Is Editing Airtable Base a language?</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, No Parsing Needed, Describes the thing, No Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Running Software</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y7" s="2" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Is Math a language?</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>Formal Language</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X8" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y8" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>falsifier-a</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Falsifier A</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Is Falsifier A a language?</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, Requires Parsing, Is the Thing, No Decoding Pressure, Resolves to AST, Is Stable Ontology, Can Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Falsifier A Isn't a Family Feud Language, but Is marked as a 'Language Candidate.'</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>MISSING: Have you seen this Language?</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X9" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y9" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>falsifier-b</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Falsifier B</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Is Falsifier B a language?</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>Falsifier B Is a Family Feud Language, but Is Not marked as a 'Language Candidate.'</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>MISSING: Have you seen this Language?</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X10" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y10" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>a-smartphone</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>A Smartphone</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Is A Smartphone a language?</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, No Parsing Needed, Is the Thing, Has Linear Decoding Pressure, No AST, Not 'Ontology', Can Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Physical Object</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X11" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y11" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Is Python a language?</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Formal Language</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X12" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y12" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>a-running-app</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Running App </t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Is A Running App  a language?</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, Requires Parsing, Is the Thing, Has Linear Decoding Pressure, No AST, Not 'Ontology', Can't Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Running Software</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="X13" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y13" s="2" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>an-xlsx-doc</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>An XLSX Doc</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Is An XLSX Doc a language?</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Formal Language</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X14" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y14" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>xlsx-editing</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>XLSX - Editing</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Is XLSX - Editing a language?</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, No Parsing Needed, Is the Thing, No Decoding Pressure, Resolves to AST, Not 'Ontology', Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>Running Software</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="X15" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y15" s="2" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>an-docx-doc</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>An DOCX Doc</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>Is An DOCX Doc a language?</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Formal Language</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X16" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y16" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>docx-editing</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>DOCX - Editing</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Is DOCX - Editing a language?</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, No Parsing Needed, Is the Thing, No Decoding Pressure, No AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>Running Software</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="X17" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y17" s="2" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Z17" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>owl-rdf-graphql-generally</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>OWL/RDF/GraphQL/... generally</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Is OWL/RDF/GraphQL/... generally a language?</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>Natural Language</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X18" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y18" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>a-thunderstorm</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>A Thunderstorm</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Is A Thunderstorm a language?</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, Requires Parsing, Is the Thing, No Decoding Pressure, Resolves to AST, Not 'Ontology', Can Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>Physical event</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X19" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y19" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z19" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>a-uml-file</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>A UML File</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>Is A UML File a language?</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>Formal Language</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X20" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y20" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>the-mona-lisa</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>The Mona Lisa</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Is The Mona Lisa a language?</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, No Parsing Needed, Is the Thing, No Decoding Pressure, No AST, Is Stable Ontology, Can Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>Physical Object</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X21" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y21" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z21" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>binary-code</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Binary Code</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>Is Binary Code a language?</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>Formal Language</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X22" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y22" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="Z22" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>running-calculator-app</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Running Calculator App</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>Is Running Calculator App a language?</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>No Syntax, Requires Parsing, Is the Thing, No Decoding Pressure, Resolves to AST, Not 'Ontology', Can't Be Held And Has Identity</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>Running Software</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="X23" s="3" t="inlineStr">
+        <is>
+          <t>IsMirrorOf</t>
+        </is>
+      </c>
+      <c r="Y23" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Z23" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>owa-cwa-falsifier</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>OWA &amp; CWA Falsifier</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>Is OWA &amp; CWA Falsifier a language?</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>Has Syntax, Requires Parsing, Describes the thing, Has Linear Decoding Pressure, Resolves to AST, Is Stable Ontology, Can't Be Held And Has no Identity</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Open World vs. Closed World Conflict.</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>MISSING: Have you seen this Language?</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="X24" s="3" t="inlineStr">
+        <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="Y24" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="Z24" s="2" t="n">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -614,7 +2796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -623,18 +2805,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>OrderId</t>
+          <t>IsEverythingALanguageId</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -644,112 +2831,1172 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>OrderNumber</t>
+          <t>ArgumentName</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Customer</t>
+          <t>ArgumentCategory</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CustomerEmailAddress</t>
+          <t>StepType</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CustomerFullName</t>
+          <t>Statement</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Formalization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RelatedCandidateName</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RelatedCandidateId</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EvidenceFromRulebook</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ord1001</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>ORD1001</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1001</v>
+          <t>neial-001</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-001</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>LanguageCanBeFormalized</t>
+        </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>cust0001</t>
+          <t>Definition</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>jane.smith@email.com</t>
+          <t>Motivation</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>To avoid the slogan 'Everything is a language', treat 'language' as a typed construct defined by testable properties (syntax, parsing, linear decoding pressure, and descriptor-role).</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>This keeps 'can be interpreted' separate from 'is a language system'.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>ord1002</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>ORD1002</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1002</v>
+          <t>neial-002</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-002</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>LanguageCanBeFormalized</t>
+        </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>cust0002</t>
+          <t>Definition</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>john.doe@email.com</t>
+          <t>PredicateSet</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Use the repo predicates: HasSyntax, RequiresParsing, HasLinearDecodingPressure, StableOntologyReference (spelled IsOngologyDescriptor in the dataset), plus auxiliary checks like CanBeHeld and HasIdentity.</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Predicates: Syntax(x), Parse(x), SerializeMeaning(x), OntDesc(x), Tangible(x)</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>We preserve the dataset's field name even when misspelled to match the generated schema.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>ord1002</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>ORD1002</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1002</v>
+          <t>neial-003</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-003</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>LanguageCanBeFormalized</t>
+        </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>cust0001</t>
+          <t>Definition</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>jane.smith@email.com</t>
+          <t>Definition</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Operational definition: an item x counts as a Language if it has syntax, requires parsing, serializes meaning, and functions as an ontology/descriptor system.</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Language(x) := HasSyntax(x) ∧ RequiresParsing(x) ∧ HasLinearDecodingPressure(x) ∧ StableOntologyReference(x)</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>This is a deliberately 'strong' definition: it matches formal languages and many natural language representations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>neial-004</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-004</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>LanguageCanBeFormalized</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Premise</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Witness</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>There exists at least one clear witness that satisfies the operational definition: English.</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>∃x (x=English ∧ Language(x))</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>HasSyntax=True; RequiresParsing=True; HasLinearDecodingPressure=True; IsOngologyDescriptor=True; CanBeHeld=False; HasIdentity=False; DistanceFromConcept=2; Category=Natural Language</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>If any predicate is false in your current dataset for this witness, adjust the candidate record or relax the definition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>neial-005</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-005</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>LanguageCanBeFormalized</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Premise</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Witness</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>There exists at least one clear witness that satisfies the operational definition: Python.</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>∃x (x=Python ∧ Language(x))</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>HasSyntax=True; RequiresParsing=True; HasLinearDecodingPressure=True; IsOngologyDescriptor=True; CanBeHeld=False; HasIdentity=False; DistanceFromConcept=2; Category=Formal Language</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>If any predicate is false in your current dataset for this witness, adjust the candidate record or relax the definition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>neial-006</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-006</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>LanguageCanBeFormalized</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Conclusion</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Conclusion</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Therefore, 'language' can be formalized as a computable classification boundary over explicit predicates.</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>(Definition ∧ Witnesses) ⇒ Formalizable(Language)</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>This is the concession: language is formalizable (at least operationally).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>neial-007</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-007</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Premise</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Entailment</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>If Language(x) is defined by necessary conditions, then any x that fails at least one condition is not a language.</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>∀x (¬(HasSyntax(x) ∧ RequiresParsing(x) ∧ HasLinearDecodingPressure(x) ∧ StableOntologyReference(x)) → ¬Language(x))</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>This is the standard move: a definition implies exclusions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>neial-008</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-008</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Counterexample</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Counterexample: a chair can be interpreted as a sign (status, design, function), but it does not constitute a language system under the operational definition.</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>¬Language(Chair)</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>A Chair</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>This separates semiotic availability (can signify) from linguistic structure (has syntax/parsing/serialized meaning).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>neial-009</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-009</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>NonLanguageExample</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Non-language example: A Thunderstorm can be meaningful, but meaning here is not generated by an explicit syntax+parsing+serialization descriptor system.</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>¬Language(A Thunderstorm)</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>A Thunderstorm</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>a-thunderstorm</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>HasSyntax=False; RequiresParsing=True; HasLinearDecodingPressure=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Physical event</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>These are strong candidates for 'sign vehicles' rather than 'languages'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>neial-010</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-010</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>NonLanguageExample</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Non-language example: A Coffee Mug can be meaningful, but meaning here is not generated by an explicit syntax+parsing+serialization descriptor system.</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>¬Language(A Coffee Mug)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>A Coffee Mug</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>a-coffee-mug</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>HasSyntax=False; RequiresParsing=False; HasLinearDecodingPressure=False; IsOngologyDescriptor=False; CanBeHeld=True; HasIdentity=True; DistanceFromConcept=1; Category=Physical Object</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>These are strong candidates for 'sign vehicles' rather than 'languages'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>neial-011</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-011</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>NonLanguageExample</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Non-language example: The Mona Lisa can be meaningful, but meaning here is not generated by an explicit syntax+parsing+serialization descriptor system.</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>¬Language(The Mona Lisa)</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>The Mona Lisa</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>the-mona-lisa</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>HasSyntax=False; RequiresParsing=False; HasLinearDecodingPressure=False; IsOngologyDescriptor=True; CanBeHeld=True; HasIdentity=True; DistanceFromConcept=1; Category=Physical Object</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>These are strong candidates for 'sign vehicles' rather than 'languages'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>neial-012</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-012</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>FuzzyBoundary</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Fuzzy case: A Running App often contains embedded languages (code, UI grammars), but as an executing/interactive process it behaves like a dynamic system rather than a static serialized language artifact.</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Borderline(A Running App): may contain ∃y Language(y) but ¬Language(A Running App) under static-serialization criteria</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>A Running App</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>This is where traditional semiotics' 'anything is a sign' doesn’t neatly distinguish: (1) language-as-system vs (2) meaning-making interactive processes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>neial-013</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-013</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>FuzzyBoundary</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Fuzzy case: Running Calculator App often contains embedded languages (code, UI grammars), but as an executing/interactive process it behaves like a dynamic system rather than a static serialized language artifact.</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Borderline(Running Calculator App): may contain ∃y Language(y) but ¬Language(Running Calculator App) under static-serialization criteria</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Running Calculator App</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>running-calculator-app</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>HasSyntax=False; RequiresParsing=True; HasLinearDecodingPressure=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Running Software</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>This is where traditional semiotics' 'anything is a sign' doesn’t neatly distinguish: (1) language-as-system vs (2) meaning-making interactive processes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>neial-014</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-014</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>FuzzyBoundary</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Fuzzy case: A Game of Fortnite often contains embedded languages (code, UI grammars), but as an executing/interactive process it behaves like a dynamic system rather than a static serialized language artifact.</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Borderline(A Game of Fortnite): may contain ∃y Language(y) but ¬Language(A Game of Fortnite) under static-serialization criteria</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>A Game of Fortnite</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>a-game-of-fortnite</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>HasSyntax=False; RequiresParsing=True; HasLinearDecodingPressure=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Running Software</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>This is where traditional semiotics' 'anything is a sign' doesn’t neatly distinguish: (1) language-as-system vs (2) meaning-making interactive processes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>neial-015</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-015</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Refinement</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Refinement: distinguish LanguageSystem (syntax/parsing/serialization descriptor) from SemioticProcess (interactive/dynamic meaning production) and from SignVehicle (object/phenomenon used as a sign).</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Kinds: LanguageSystem(x) | SemioticProcess(x) | SignVehicle(x)</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>This gives you a place to put running apps and games without forcing 'language' to swallow everything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>neial-016</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>NEIAL-016</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>NotEverythingIsALanguage</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Conclusion</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Conclusion</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Given a formalizable definition of language, not everything is a language; some things are better treated as sign vehicles or semiotic processes, with running applications as a key fuzzy region that benefits from explicit modeling.</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Formalizable(Language) ∧ ∃x ¬Language(x) ⇒ ¬(EverythingIsALanguage)</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>This is the repo's thesis in one line.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ERBCustomizationId</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SQLCode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SQLTarget</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CustomizationType</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>01b-customize-schema-sql</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>01b-customize-schema.sql</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Customize Schema</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-- ============================================================================
+-- CUSTOMIZE SCHEMA - User-defined tables and schema modifications
+-- ============================================================================
+-- This file is for YOUR custom schema changes that should persist across
+-- regeneration of the base ERB files.
+--
+-- USE THIS FILE FOR:
+--   - Additional tables not defined in the rulebook
+--   - Extra columns on existing tables (ALTER TABLE)
+--   - Custom indexes for performance tuning
+--   - Custom constraints or triggers
+--
+-- IMPORTANT:
+--   - This file runs AFTER 01-drop-and-create-tables.sql
+--   - The base tables already exist when this runs
+--   - This file will NOT be overwritten by ERB regeneration
+--
+-- ============================================================================
+-- Your custom schema changes go here:
+</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Postgres</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Schema</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>02b-customize-functions-sql</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>02b-customize-functions.sql</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Customize Functions</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-- Prediction Fail: Returns TRUE when predicted_answer doesn't match is_language
+DROP FUNCTION IF EXISTS calc_language_candidates_prediction_fail_x;
+CREATE OR REPLACE FUNCTION calc_language_candidates_prediction_fail_x(p_language_candidate_id TEXT)
+RETURNS TEXT AS $$
+  SELECT NULLIF(
+    COALESCE(
+      CASE
+        WHEN COALESCE(calc_language_candidates_predicted_answer(p_language_candidate_id), FALSE)
+             != COALESCE(is_language, FALSE)
+        THEN name || ' ' ||
+             CASE WHEN calc_language_candidates_predicted_answer(p_language_candidate_id) THEN 'Is' ELSE 'Isn''t' END ||
+             ' a Family Feud Language, but ' ||
+             CASE WHEN is_language THEN 'Is' ELSE 'Is Not' END ||
+             ' marked as a ''Language Candidate.'''
+      END,
+      ''
+    ) ||
+    COALESCE(
+      CASE
+        WHEN calc_language_candidates_is_open_closed_world_conflicted(p_language_candidate_id)
+        THEN ' - Open World vs. Closed World Conflict.'
+      END,
+      ''
+    ),
+    ''
+  )
+  FROM language_candidates
+  WHERE language_candidate_id = p_language_candidate_id;
+$$ LANGUAGE SQL STABLE SECURITY DEFINER;
+DROP FUNCTION calc_language_candidates_question;
+CREATE OR REPLACE FUNCTION public.calc_language_candidates_question(p_language_candidate_id text)
+ RETURNS text
+ LANGUAGE plpgsql
+ STABLE SECURITY DEFINER
+AS $function$
+BEGIN
+  RETURN ('Is ' || (SELECT NULLIF(name, '''') FROM language_candidates WHERE language_candidate_id = p_language_candidate_id) || ' a language?')::text;
+END;
+$function$
+</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Postgres</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Functions</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>03b-customize-views-sql</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>03b-customize-views.sql</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Customize Views</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-- ============================================================================
+-- CUSTOMIZE VIEWS - User-defined views and view extensions
+-- ============================================================================
+-- This file is for YOUR custom views that should persist across
+-- regeneration of the base ERB files.
+--
+-- IMPORTANT:
+--   - This file runs AFTER 03-create-views.sql
+--   - All base vw_* views already exist when this runs
+--   - This file will NOT be overwritten by ERB regeneration
+--
+-- ============================================================================
+-- Your custom views go here:
+</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Postgres</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Views</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>04b-customize-rls-sql</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>04b-customize-rls.sql</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Customize Policies (RLS)</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-- ============================================================================
+-- CUSTOMIZE POLICIES - User-defined Row Level Security policies
+-- ============================================================================
+-- This file is for YOUR custom RLS policies that should persist across
+-- regeneration of the base ERB files.
+--
+-- IMPORTANT:
+--   - This file runs AFTER 04-create-policies.sql
+--   - Base RLS policies already exist when this runs
+--   - This file will NOT be overwritten by ERB regeneration
+--
+-- ============================================================================
+-- Your custom policies go here:
+</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Postgres</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>05b-customize-data-sql</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>05b-customize-data.sql</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Customize Data (Seeds / Migrations)</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-- ============================================================================
+-- CUSTOMIZE DATA - User-defined seed data and data migrations
+-- ============================================================================
+-- This file is for YOUR custom seed data that should persist across
+-- regeneration of the base ERB files.
+--
+-- IMPORTANT:
+--   - This file runs AFTER 05-insert-data.sql
+--   - Base seed data already exists when this runs
+--   - This file will NOT be overwritten by ERB regeneration
+--
+-- ============================================================================
+-- Your custom data inserts go here:
+</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Postgres</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Data</t>
         </is>
       </c>
     </row>
